--- a/doc/tables/Convergence_Francis_and_MI_SCA.xlsx
+++ b/doc/tables/Convergence_Francis_and_MI_SCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ejdick\projects\~Vermilion 2020\SS_Vermilion_SoCA\Verm21SoCA_101_base_089_with_all_weights_set_to_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stock_Assessments\VRML_Assessment_2021\GitHub\Vermilion_2021\doc\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31106" windowHeight="5666"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,1087 +161,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.30238500000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7560530000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0418999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31900200000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30062899999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26366899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.130275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29249599999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11923400000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27275700000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0451999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2853999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9968999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$15:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.6946140000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.28708</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40847099999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41389300000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23879900000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95517600000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56523199999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.305911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.173368</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26087199999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6348999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.255882</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.192359</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6D1-4CC5-A385-1631B404B96B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$9:$U$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$9:$U$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6D1-4CC5-A385-1631B404B96B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="684291903"/>
-        <c:axId val="684294815"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="684291903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
-                  <a:t>Francis</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="684294815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="684294815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
-                  <a:t>McAllister-Ianelli</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="684291903"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1507,23 +426,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9.69140625" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +478,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +516,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +554,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +592,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +630,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +668,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +706,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +744,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1860,11 +781,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1901,11 +819,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="U10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +858,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +896,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +934,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +972,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2121,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2153,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2185,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2249,7 +1164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2281,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2345,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2377,7 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -2441,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -2475,6 +1390,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>